--- a/2025/summary_results_assembly.xlsx
+++ b/2025/summary_results_assembly.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t xml:space="preserve">This table reports the summary statics of our assembly at each stage of its computation. </t>
   </si>
@@ -101,10 +101,7 @@
     <t xml:space="preserve">anno3</t>
   </si>
   <si>
-    <t xml:space="preserve">anno2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anno3A</t>
+    <t xml:space="preserve">transcriptome</t>
   </si>
   <si>
     <t xml:space="preserve">short_reads</t>
@@ -123,15 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Anno2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anno3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anno2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anno3A</t>
   </si>
   <si>
     <t xml:space="preserve">Number of matchs</t>
@@ -222,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,24 +275,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFE8E8E8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFE8E8E8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
@@ -373,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,15 +390,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,14 +776,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,26 +890,35 @@
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>92.4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>91.1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>89.1</v>
-      </c>
+      <c r="B12" s="11" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -969,10 +954,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,53 +987,43 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>152015</v>
@@ -1056,19 +1031,10 @@
       <c r="C3" s="0" t="n">
         <v>163344</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <v>181850</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>163344</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>163344</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>213157</v>
@@ -1076,19 +1042,10 @@
       <c r="C4" s="0" t="n">
         <v>95401</v>
       </c>
-      <c r="D4" s="10" t="n">
-        <v>95401</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>213157</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>95401</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>807902</v>
@@ -1096,19 +1053,10 @@
       <c r="C5" s="0" t="n">
         <v>355286</v>
       </c>
-      <c r="D5" s="10" t="n">
-        <v>337470</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>863959</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>355286</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1173074</v>
@@ -1116,19 +1064,10 @@
       <c r="C6" s="0" t="n">
         <v>614031</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <v>614721</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>1240460</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>614031</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1136,19 +1075,10 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>152015</v>
@@ -1156,19 +1086,10 @@
       <c r="C8" s="0" t="n">
         <v>163344</v>
       </c>
-      <c r="D8" s="10" t="n">
-        <v>181850</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>163344</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>163344</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>213157</v>
@@ -1176,19 +1097,10 @@
       <c r="C9" s="0" t="n">
         <v>95401</v>
       </c>
-      <c r="D9" s="10" t="n">
-        <v>95401</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>213157</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>95401</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5.3</v>
@@ -1196,19 +1108,10 @@
       <c r="C10" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="D10" s="10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3.8</v>
@@ -1216,19 +1119,10 @@
       <c r="C11" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="D11" s="10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>7.7</v>
@@ -1236,19 +1130,10 @@
       <c r="C12" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G12" s="10" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5.5</v>
@@ -1256,19 +1141,10 @@
       <c r="C13" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="D13" s="10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G13" s="10" t="n">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>25232129</v>
@@ -1276,19 +1152,10 @@
       <c r="C14" s="0" t="n">
         <v>157981214</v>
       </c>
-      <c r="D14" s="10" t="n">
-        <v>95449063</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>157981214</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>157981214</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>940610510</v>
@@ -1296,19 +1163,10 @@
       <c r="C15" s="0" t="n">
         <v>356414863</v>
       </c>
-      <c r="D15" s="10" t="n">
-        <v>356414863</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>940610510</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <v>356414863</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>457957710</v>
@@ -1316,19 +1174,10 @@
       <c r="C16" s="0" t="n">
         <v>327344790</v>
       </c>
-      <c r="D16" s="10" t="n">
-        <v>256281626</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>564436719</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>327344790</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>506427132</v>
@@ -1336,19 +1185,10 @@
       <c r="C17" s="0" t="n">
         <v>187051287</v>
       </c>
-      <c r="D17" s="10" t="n">
-        <v>195582300</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>532697208</v>
-      </c>
-      <c r="G17" s="10" t="n">
-        <v>187051287</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>165</v>
@@ -1356,19 +1196,10 @@
       <c r="C18" s="0" t="n">
         <v>967</v>
       </c>
-      <c r="D18" s="10" t="n">
-        <v>524</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>967</v>
-      </c>
-      <c r="G18" s="10" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4412</v>
@@ -1376,19 +1207,10 @@
       <c r="C19" s="0" t="n">
         <v>3735</v>
       </c>
-      <c r="D19" s="10" t="n">
-        <v>3735</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>4412</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>566</v>
@@ -1396,19 +1218,10 @@
       <c r="C20" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="D20" s="10" t="n">
-        <v>759</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>653</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>304</v>
@@ -1416,19 +1229,10 @@
       <c r="C21" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="D21" s="10" t="n">
-        <v>318</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>429</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>31501</v>
@@ -1436,19 +1240,10 @@
       <c r="C22" s="0" t="n">
         <v>12041758</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>115223</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>12041758</v>
-      </c>
-      <c r="G22" s="10" t="n">
-        <v>12041758</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>69919</v>
@@ -1456,19 +1251,10 @@
       <c r="C23" s="0" t="n">
         <v>55515</v>
       </c>
-      <c r="D23" s="10" t="n">
-        <v>55515</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>69919</v>
-      </c>
-      <c r="G23" s="10" t="n">
-        <v>55515</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>46352</v>
@@ -1476,19 +1262,10 @@
       <c r="C24" s="0" t="n">
         <v>110905</v>
       </c>
-      <c r="D24" s="10" t="n">
-        <v>46352</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>110905</v>
-      </c>
-      <c r="G24" s="10" t="n">
-        <v>110905</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>31501</v>
@@ -1496,19 +1273,10 @@
       <c r="C25" s="0" t="n">
         <v>31501</v>
       </c>
-      <c r="D25" s="10" t="n">
-        <v>31501</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>31501</v>
-      </c>
-      <c r="G25" s="10" t="n">
-        <v>31501</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>6</v>
@@ -1516,19 +1284,10 @@
       <c r="C26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" s="10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>69</v>
@@ -1536,19 +1295,10 @@
       <c r="C27" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D27" s="10" t="n">
-        <v>72</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>69</v>
-      </c>
-      <c r="G27" s="10" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-10482</v>
@@ -1556,33 +1306,15 @@
       <c r="C28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>-10482</v>
-      </c>
-      <c r="G28" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1620,99 +1352,99 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="15"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="15"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="15"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="15"/>
+      <c r="E15" s="16"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="15"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="15"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="15"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="15"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="15"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="15"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="15"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
